--- a/Assignment_1/table/table.xlsx
+++ b/Assignment_1/table/table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthajit/Desktop/ProbAssignTemplate/myassignment/ProbabilityAI1110/table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthajit/Desktop/ProbAssignTemplate/myassignment/ProbabilityAI1110/Assignment_1/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{098BF8C4-FC03-BA42-B88A-23B135E03589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E0D6DC-FA59-0D48-9F32-7DCDC014598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="500" windowWidth="28380" windowHeight="14780" xr2:uid="{54E0F771-0482-0E40-B696-F751B8B13C0B}"/>
   </bookViews>
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,24 +90,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,20 +440,20 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -447,23 +461,23 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
